--- a/back-end/output/processed_data.xlsx
+++ b/back-end/output/processed_data.xlsx
@@ -442,12 +442,12 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>应发工资</t>
+          <t>基本工资</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>实发工资</t>
+          <t>工龄工资</t>
         </is>
       </c>
     </row>
@@ -458,11 +458,9 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>24133</v>
-      </c>
-      <c r="C2" t="n">
-        <v>16074.62</v>
-      </c>
+        <v>13333</v>
+      </c>
+      <c r="C2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -471,11 +469,9 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>24133</v>
-      </c>
-      <c r="C3" t="n">
-        <v>15378.12</v>
-      </c>
+        <v>13333</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -484,11 +480,9 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18667</v>
-      </c>
-      <c r="C4" t="n">
-        <v>11759.82</v>
-      </c>
+        <v>10667</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -497,11 +491,9 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>19467</v>
-      </c>
-      <c r="C5" t="n">
-        <v>12172.67</v>
-      </c>
+        <v>10667</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -510,11 +502,9 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>18667</v>
-      </c>
-      <c r="C6" t="n">
-        <v>14029.98</v>
-      </c>
+        <v>10667</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -523,11 +513,9 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18667</v>
-      </c>
-      <c r="C7" t="n">
-        <v>13179.93</v>
-      </c>
+        <v>10667</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -536,11 +524,9 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15667</v>
-      </c>
-      <c r="C8" t="n">
-        <v>10182.72</v>
-      </c>
+        <v>10667</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -549,10 +535,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>12037</v>
+        <v>2300</v>
       </c>
       <c r="C9" t="n">
-        <v>7774.74</v>
+        <v>420</v>
       </c>
     </row>
     <row r="10">
@@ -562,10 +548,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11550</v>
+        <v>2300</v>
       </c>
       <c r="C10" t="n">
-        <v>7406.65</v>
+        <v>630</v>
       </c>
     </row>
     <row r="11">
@@ -575,10 +561,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8960</v>
+        <v>2300</v>
       </c>
       <c r="C11" t="n">
-        <v>6913.83</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12">
@@ -588,10 +574,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7060</v>
+        <v>2300</v>
       </c>
       <c r="C12" t="n">
-        <v>5550</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13">
@@ -601,10 +587,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>8030</v>
+        <v>2300</v>
       </c>
       <c r="C13" t="n">
-        <v>6427.72</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14">
@@ -614,10 +600,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5870</v>
+        <v>2300</v>
       </c>
       <c r="C14" t="n">
-        <v>4125.2</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15">
@@ -627,10 +613,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>7542</v>
+        <v>2300</v>
       </c>
       <c r="C15" t="n">
-        <v>5577.66</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16">
@@ -640,10 +626,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>7801</v>
+        <v>2300</v>
       </c>
       <c r="C16" t="n">
-        <v>5695.49</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17">
@@ -653,10 +639,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>9141</v>
+        <v>2300</v>
       </c>
       <c r="C17" t="n">
-        <v>7134.4</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18">
@@ -666,10 +652,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>15071</v>
+        <v>2300</v>
       </c>
       <c r="C18" t="n">
-        <v>10354.06</v>
+        <v>360</v>
       </c>
     </row>
     <row r="19">
@@ -679,10 +665,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>10370</v>
+        <v>2300</v>
       </c>
       <c r="C19" t="n">
-        <v>6830.26</v>
+        <v>420</v>
       </c>
     </row>
     <row r="20">
@@ -692,10 +678,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>9020</v>
+        <v>2300</v>
       </c>
       <c r="C20" t="n">
-        <v>6330.25</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21">
@@ -705,10 +691,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>9230</v>
+        <v>2300</v>
       </c>
       <c r="C21" t="n">
-        <v>6181.61</v>
+        <v>330</v>
       </c>
     </row>
     <row r="22">
@@ -718,10 +704,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>7060</v>
+        <v>2300</v>
       </c>
       <c r="C22" t="n">
-        <v>5706.94</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23">
@@ -731,10 +717,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>9652</v>
+        <v>2300</v>
       </c>
       <c r="C23" t="n">
-        <v>7520.46</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24">
@@ -754,10 +740,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>15667</v>
+        <v>10667</v>
       </c>
       <c r="C26" t="n">
-        <v>11406.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -767,10 +753,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>7590</v>
+        <v>1720</v>
       </c>
       <c r="C27" t="n">
-        <v>5913.04</v>
+        <v>150</v>
       </c>
     </row>
     <row r="28">
@@ -780,10 +766,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>7803</v>
+        <v>1720</v>
       </c>
       <c r="C28" t="n">
-        <v>6021.93</v>
+        <v>425</v>
       </c>
     </row>
     <row r="29">
@@ -793,10 +779,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>5870</v>
+        <v>1720</v>
       </c>
       <c r="C29" t="n">
-        <v>4579.12</v>
+        <v>250</v>
       </c>
     </row>
     <row r="30">
@@ -806,10 +792,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>6753</v>
+        <v>1720</v>
       </c>
       <c r="C30" t="n">
-        <v>5592.5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31">
@@ -819,10 +805,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>6132.2</v>
+        <v>1720</v>
       </c>
       <c r="C31" t="n">
-        <v>5176.11</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32">
@@ -832,10 +818,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>5943.4</v>
+        <v>1720</v>
       </c>
       <c r="C32" t="n">
-        <v>4850.12</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33">
@@ -845,10 +831,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>8140.4</v>
+        <v>1720</v>
       </c>
       <c r="C33" t="n">
-        <v>6768.47</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34">
@@ -858,10 +844,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>7729.72</v>
+        <v>1720</v>
       </c>
       <c r="C34" t="n">
-        <v>6512.08</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35">
@@ -871,10 +857,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>6463.7</v>
+        <v>1720</v>
       </c>
       <c r="C35" t="n">
-        <v>5509.5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36">
@@ -884,10 +870,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>6293.2</v>
+        <v>1720</v>
       </c>
       <c r="C36" t="n">
-        <v>4903.4</v>
+        <v>500</v>
       </c>
     </row>
     <row r="37">
@@ -897,10 +883,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>6210</v>
+        <v>1720</v>
       </c>
       <c r="C37" t="n">
-        <v>4992.08</v>
+        <v>500</v>
       </c>
     </row>
     <row r="38">
@@ -910,10 +896,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>6321</v>
+        <v>1720</v>
       </c>
       <c r="C38" t="n">
-        <v>5279.4</v>
+        <v>500</v>
       </c>
     </row>
     <row r="39">
@@ -923,10 +909,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>6121</v>
+        <v>1720</v>
       </c>
       <c r="C39" t="n">
-        <v>5112.84</v>
+        <v>500</v>
       </c>
     </row>
     <row r="40">
@@ -936,10 +922,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>6721</v>
+        <v>1720</v>
       </c>
       <c r="C40" t="n">
-        <v>5567.36</v>
+        <v>500</v>
       </c>
     </row>
     <row r="41">
@@ -949,10 +935,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>4107.2</v>
+        <v>1720</v>
       </c>
       <c r="C41" t="n">
-        <v>3471.01</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42">
@@ -962,10 +948,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>9745</v>
+        <v>1720</v>
       </c>
       <c r="C42" t="n">
-        <v>8142.17</v>
+        <v>75</v>
       </c>
     </row>
     <row r="43">
@@ -975,10 +961,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>9503</v>
+        <v>1720</v>
       </c>
       <c r="C43" t="n">
-        <v>6777.24</v>
+        <v>225</v>
       </c>
     </row>
     <row r="44">
@@ -988,10 +974,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>6586</v>
+        <v>1720</v>
       </c>
       <c r="C44" t="n">
-        <v>5115</v>
+        <v>250</v>
       </c>
     </row>
     <row r="45">
@@ -1001,10 +987,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>7611</v>
+        <v>1720</v>
       </c>
       <c r="C45" t="n">
-        <v>5864.12</v>
+        <v>175</v>
       </c>
     </row>
     <row r="46">
@@ -1014,10 +1000,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>10394</v>
+        <v>1720</v>
       </c>
       <c r="C46" t="n">
-        <v>8276.299999999999</v>
+        <v>500</v>
       </c>
     </row>
     <row r="47">
@@ -1027,10 +1013,10 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>7952</v>
+        <v>1720</v>
       </c>
       <c r="C47" t="n">
-        <v>6435.96</v>
+        <v>300</v>
       </c>
     </row>
     <row r="48">
@@ -1040,10 +1026,10 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>8360</v>
+        <v>1720</v>
       </c>
       <c r="C48" t="n">
-        <v>7186.69</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49">
@@ -1053,10 +1039,10 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>6552</v>
+        <v>1720</v>
       </c>
       <c r="C49" t="n">
-        <v>5356.72</v>
+        <v>500</v>
       </c>
     </row>
     <row r="50">
@@ -1066,10 +1052,10 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>6352</v>
+        <v>1720</v>
       </c>
       <c r="C50" t="n">
-        <v>5283.04</v>
+        <v>500</v>
       </c>
     </row>
     <row r="51">
@@ -1079,10 +1065,10 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>2028</v>
+        <v>554</v>
       </c>
       <c r="C51" t="n">
-        <v>2020</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52">
@@ -1092,10 +1078,10 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>6623</v>
+        <v>1720</v>
       </c>
       <c r="C52" t="n">
-        <v>5827.97</v>
+        <v>50</v>
       </c>
     </row>
     <row r="53">
@@ -1105,10 +1091,10 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>6290</v>
+        <v>1483</v>
       </c>
       <c r="C53" t="n">
-        <v>5260.36</v>
+        <v>75</v>
       </c>
     </row>
     <row r="54">
@@ -1118,10 +1104,10 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>8696</v>
+        <v>1720</v>
       </c>
       <c r="C54" t="n">
-        <v>7098.08</v>
+        <v>175</v>
       </c>
     </row>
     <row r="55">
@@ -1131,10 +1117,10 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>9602</v>
+        <v>1720</v>
       </c>
       <c r="C55" t="n">
-        <v>8037.57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="56">
@@ -1144,10 +1130,10 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>6766</v>
+        <v>1720</v>
       </c>
       <c r="C56" t="n">
-        <v>5381.01</v>
+        <v>275</v>
       </c>
     </row>
     <row r="57">
@@ -1157,10 +1143,10 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>6007</v>
+        <v>1720</v>
       </c>
       <c r="C57" t="n">
-        <v>4904.6</v>
+        <v>125</v>
       </c>
     </row>
     <row r="58">
@@ -1170,10 +1156,10 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>6082</v>
+        <v>1720</v>
       </c>
       <c r="C58" t="n">
-        <v>4879.84</v>
+        <v>100</v>
       </c>
     </row>
     <row r="59">
@@ -1183,10 +1169,10 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>5827</v>
+        <v>1720</v>
       </c>
       <c r="C59" t="n">
-        <v>4401.44</v>
+        <v>275</v>
       </c>
     </row>
     <row r="60">
@@ -1196,10 +1182,10 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>5902</v>
+        <v>1720</v>
       </c>
       <c r="C60" t="n">
-        <v>4790.56</v>
+        <v>350</v>
       </c>
     </row>
     <row r="61">
@@ -1209,10 +1195,10 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>4740</v>
+        <v>1720</v>
       </c>
       <c r="C61" t="n">
-        <v>3795.42</v>
+        <v>200</v>
       </c>
     </row>
     <row r="62">
@@ -1222,10 +1208,10 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>5253</v>
+        <v>1720</v>
       </c>
       <c r="C62" t="n">
-        <v>4593.46</v>
+        <v>275</v>
       </c>
     </row>
     <row r="63">
@@ -1235,10 +1221,10 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>6114</v>
+        <v>1720</v>
       </c>
       <c r="C63" t="n">
-        <v>5443.89</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64">
@@ -1248,10 +1234,10 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>6821</v>
+        <v>1720</v>
       </c>
       <c r="C64" t="n">
-        <v>5448.04</v>
+        <v>100</v>
       </c>
     </row>
     <row r="65">
@@ -1261,10 +1247,10 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>4362.8</v>
+        <v>1720</v>
       </c>
       <c r="C65" t="n">
-        <v>3172.78</v>
+        <v>325</v>
       </c>
     </row>
     <row r="66">
@@ -1274,10 +1260,10 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>6556</v>
+        <v>1720</v>
       </c>
       <c r="C66" t="n">
-        <v>5411.86</v>
+        <v>50</v>
       </c>
     </row>
     <row r="67">
@@ -1287,10 +1273,10 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>7551</v>
+        <v>1720</v>
       </c>
       <c r="C67" t="n">
-        <v>6393.1</v>
+        <v>50</v>
       </c>
     </row>
     <row r="68">
@@ -1300,10 +1286,10 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>6056</v>
+        <v>1720</v>
       </c>
       <c r="C68" t="n">
-        <v>5032.68</v>
+        <v>200</v>
       </c>
     </row>
     <row r="69">
@@ -1313,10 +1299,10 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>6137</v>
+        <v>1720</v>
       </c>
       <c r="C69" t="n">
-        <v>5125.8</v>
+        <v>300</v>
       </c>
     </row>
     <row r="70">
@@ -1326,10 +1312,10 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>10522</v>
+        <v>1720</v>
       </c>
       <c r="C70" t="n">
-        <v>7770.72</v>
+        <v>325</v>
       </c>
     </row>
     <row r="71">
@@ -1339,10 +1325,10 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>8571</v>
+        <v>1720</v>
       </c>
       <c r="C71" t="n">
-        <v>7310.1</v>
+        <v>50</v>
       </c>
     </row>
     <row r="72">
@@ -1352,10 +1338,10 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>7454</v>
+        <v>1720</v>
       </c>
       <c r="C72" t="n">
-        <v>6052.73</v>
+        <v>200</v>
       </c>
     </row>
     <row r="73">
@@ -1365,10 +1351,10 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>4751</v>
+        <v>1720</v>
       </c>
       <c r="C73" t="n">
-        <v>3835.35</v>
+        <v>100</v>
       </c>
     </row>
     <row r="74">
@@ -1378,10 +1364,10 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>6458</v>
+        <v>1720</v>
       </c>
       <c r="C74" t="n">
-        <v>5292.96</v>
+        <v>175</v>
       </c>
     </row>
     <row r="75">
@@ -1391,10 +1377,10 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>5887</v>
+        <v>1720</v>
       </c>
       <c r="C75" t="n">
-        <v>4945.72</v>
+        <v>50</v>
       </c>
     </row>
     <row r="76">
@@ -1404,10 +1390,10 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>6597</v>
+        <v>1720</v>
       </c>
       <c r="C76" t="n">
-        <v>5494.26</v>
+        <v>50</v>
       </c>
     </row>
     <row r="77">
@@ -1417,10 +1403,10 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>6904</v>
+        <v>1720</v>
       </c>
       <c r="C77" t="n">
-        <v>5762.1</v>
+        <v>50</v>
       </c>
     </row>
     <row r="78">
@@ -1430,10 +1416,10 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>5278</v>
+        <v>1720</v>
       </c>
       <c r="C78" t="n">
-        <v>3962.8</v>
+        <v>100</v>
       </c>
     </row>
     <row r="79">
@@ -1443,10 +1429,10 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>4880</v>
+        <v>1720</v>
       </c>
       <c r="C79" t="n">
-        <v>3628.64</v>
+        <v>150</v>
       </c>
     </row>
     <row r="80">
@@ -1456,10 +1442,10 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>5102</v>
+        <v>1720</v>
       </c>
       <c r="C80" t="n">
-        <v>4462.11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="81">
@@ -1469,10 +1455,10 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>3441.8</v>
+        <v>1352</v>
       </c>
       <c r="C81" t="n">
-        <v>2801.91</v>
+        <v>25</v>
       </c>
     </row>
     <row r="82">
@@ -1482,10 +1468,10 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>4851</v>
+        <v>1720</v>
       </c>
       <c r="C82" t="n">
-        <v>3740.79</v>
+        <v>100</v>
       </c>
     </row>
     <row r="83">
@@ -1495,10 +1481,10 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>8652</v>
+        <v>1720</v>
       </c>
       <c r="C83" t="n">
-        <v>7002.52</v>
+        <v>125</v>
       </c>
     </row>
     <row r="84">
@@ -1508,10 +1494,10 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>5797</v>
+        <v>1720</v>
       </c>
       <c r="C84" t="n">
-        <v>4956.04</v>
+        <v>50</v>
       </c>
     </row>
     <row r="85">
@@ -1521,10 +1507,10 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>7811</v>
+        <v>1720</v>
       </c>
       <c r="C85" t="n">
-        <v>6701.34</v>
+        <v>75</v>
       </c>
     </row>
     <row r="86">
@@ -1534,10 +1520,10 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>7287</v>
+        <v>1720</v>
       </c>
       <c r="C86" t="n">
-        <v>6132.92</v>
+        <v>75</v>
       </c>
     </row>
     <row r="87">
@@ -1547,10 +1533,10 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>6737</v>
+        <v>1720</v>
       </c>
       <c r="C87" t="n">
-        <v>5336.67</v>
+        <v>200</v>
       </c>
     </row>
     <row r="88">
@@ -1560,10 +1546,10 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>4774</v>
+        <v>1720</v>
       </c>
       <c r="C88" t="n">
-        <v>3879.36</v>
+        <v>75</v>
       </c>
     </row>
     <row r="89">
@@ -1573,10 +1559,10 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>5596</v>
+        <v>1720</v>
       </c>
       <c r="C89" t="n">
-        <v>4499.68</v>
+        <v>175</v>
       </c>
     </row>
     <row r="90">
@@ -1586,10 +1572,10 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>5901</v>
+        <v>1720</v>
       </c>
       <c r="C90" t="n">
-        <v>4749.96</v>
+        <v>150</v>
       </c>
     </row>
     <row r="91">
@@ -1599,10 +1585,10 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>4837</v>
+        <v>1720</v>
       </c>
       <c r="C91" t="n">
-        <v>3370.92</v>
+        <v>100</v>
       </c>
     </row>
     <row r="92">
@@ -1612,10 +1598,10 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>6152</v>
+        <v>1720</v>
       </c>
       <c r="C92" t="n">
-        <v>4684.8</v>
+        <v>500</v>
       </c>
     </row>
     <row r="93">
@@ -1625,10 +1611,10 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>5802</v>
+        <v>1720</v>
       </c>
       <c r="C93" t="n">
-        <v>4545.14</v>
+        <v>150</v>
       </c>
     </row>
     <row r="94">
@@ -1638,10 +1624,10 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>6127</v>
+        <v>1720</v>
       </c>
       <c r="C94" t="n">
-        <v>4769.24</v>
+        <v>475</v>
       </c>
     </row>
     <row r="95">
@@ -1651,10 +1637,10 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>5927</v>
+        <v>1720</v>
       </c>
       <c r="C95" t="n">
-        <v>4717.2</v>
+        <v>275</v>
       </c>
     </row>
     <row r="96">
@@ -1664,10 +1650,10 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>6121</v>
+        <v>1720</v>
       </c>
       <c r="C96" t="n">
-        <v>4693.32</v>
+        <v>400</v>
       </c>
     </row>
     <row r="97">
@@ -1677,10 +1663,10 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>5471</v>
+        <v>1720</v>
       </c>
       <c r="C97" t="n">
-        <v>4821.81</v>
+        <v>50</v>
       </c>
     </row>
     <row r="98">
@@ -1690,10 +1676,10 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>5446</v>
+        <v>1720</v>
       </c>
       <c r="C98" t="n">
-        <v>4793.31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="99">
@@ -1703,10 +1689,10 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>5537</v>
+        <v>1720</v>
       </c>
       <c r="C99" t="n">
-        <v>4210.72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="100">
@@ -1716,10 +1702,10 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>5571</v>
+        <v>1720</v>
       </c>
       <c r="C100" t="n">
-        <v>4137.24</v>
+        <v>150</v>
       </c>
     </row>
     <row r="101">
@@ -1729,10 +1715,10 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>6418</v>
+        <v>1720</v>
       </c>
       <c r="C101" t="n">
-        <v>5289.32</v>
+        <v>125</v>
       </c>
     </row>
     <row r="102">
@@ -1742,10 +1728,10 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>5446</v>
+        <v>1720</v>
       </c>
       <c r="C102" t="n">
-        <v>4793.31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="103">
@@ -1755,10 +1741,10 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>6999</v>
+        <v>1720</v>
       </c>
       <c r="C103" t="n">
-        <v>5574.36</v>
+        <v>325</v>
       </c>
     </row>
     <row r="104">
@@ -1768,10 +1754,10 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>6874</v>
+        <v>1720</v>
       </c>
       <c r="C104" t="n">
-        <v>5473.68</v>
+        <v>200</v>
       </c>
     </row>
     <row r="105">
@@ -1791,10 +1777,10 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>10989</v>
+        <v>1620</v>
       </c>
       <c r="C107" t="n">
-        <v>8640.200000000001</v>
+        <v>100</v>
       </c>
     </row>
     <row r="108">
@@ -1804,10 +1790,10 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>9285</v>
+        <v>1620</v>
       </c>
       <c r="C108" t="n">
-        <v>7520.72</v>
+        <v>150</v>
       </c>
     </row>
     <row r="109">
@@ -1817,10 +1803,10 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>6636</v>
+        <v>1620</v>
       </c>
       <c r="C109" t="n">
-        <v>5579.42</v>
+        <v>100</v>
       </c>
     </row>
     <row r="110">
@@ -1830,10 +1816,10 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>9006</v>
+        <v>1620</v>
       </c>
       <c r="C110" t="n">
-        <v>7751.6</v>
+        <v>100</v>
       </c>
     </row>
     <row r="111">
@@ -1843,10 +1829,10 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>4889</v>
+        <v>1620</v>
       </c>
       <c r="C111" t="n">
-        <v>3893.04</v>
+        <v>150</v>
       </c>
     </row>
     <row r="112">
@@ -1856,10 +1842,10 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>3969</v>
+        <v>1471</v>
       </c>
       <c r="C112" t="n">
-        <v>2913.74</v>
+        <v>200</v>
       </c>
     </row>
     <row r="113">
@@ -1869,10 +1855,10 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>8354</v>
+        <v>1620</v>
       </c>
       <c r="C113" t="n">
-        <v>6830.46</v>
+        <v>75</v>
       </c>
     </row>
     <row r="114">
@@ -1882,10 +1868,10 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>8279</v>
+        <v>1620</v>
       </c>
       <c r="C114" t="n">
-        <v>7413.21</v>
+        <v>50</v>
       </c>
     </row>
     <row r="115">
@@ -1895,10 +1881,10 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>5608</v>
+        <v>1620</v>
       </c>
       <c r="C115" t="n">
-        <v>4970.87</v>
+        <v>25</v>
       </c>
     </row>
     <row r="116">
@@ -1908,10 +1894,10 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>5658</v>
+        <v>1620</v>
       </c>
       <c r="C116" t="n">
-        <v>4751.32</v>
+        <v>75</v>
       </c>
     </row>
     <row r="117">
@@ -1921,10 +1907,10 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>7355</v>
+        <v>1620</v>
       </c>
       <c r="C117" t="n">
-        <v>6399.71</v>
+        <v>25</v>
       </c>
     </row>
     <row r="118">
@@ -1934,10 +1920,10 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>8254</v>
+        <v>1620</v>
       </c>
       <c r="C118" t="n">
-        <v>7297.01</v>
+        <v>25</v>
       </c>
     </row>
     <row r="119">
@@ -1947,10 +1933,10 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>10085</v>
+        <v>1620</v>
       </c>
       <c r="C119" t="n">
-        <v>7886.86</v>
+        <v>100</v>
       </c>
     </row>
     <row r="120">
@@ -1960,10 +1946,10 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>8755</v>
+        <v>1620</v>
       </c>
       <c r="C120" t="n">
-        <v>7087.16</v>
+        <v>100</v>
       </c>
     </row>
     <row r="121">
@@ -1973,10 +1959,10 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>7997</v>
+        <v>1620</v>
       </c>
       <c r="C121" t="n">
-        <v>6655.49</v>
+        <v>350</v>
       </c>
     </row>
     <row r="122">
@@ -1986,10 +1972,10 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>8585</v>
+        <v>1620</v>
       </c>
       <c r="C122" t="n">
-        <v>6918.57</v>
+        <v>100</v>
       </c>
     </row>
     <row r="123">
@@ -1999,10 +1985,10 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>10210</v>
+        <v>1620</v>
       </c>
       <c r="C123" t="n">
-        <v>8331.43</v>
+        <v>100</v>
       </c>
     </row>
     <row r="124">
@@ -2012,10 +1998,10 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>8610</v>
+        <v>1620</v>
       </c>
       <c r="C124" t="n">
-        <v>7001.8</v>
+        <v>125</v>
       </c>
     </row>
     <row r="125">
@@ -2025,10 +2011,10 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>8510</v>
+        <v>1620</v>
       </c>
       <c r="C125" t="n">
-        <v>7507.49</v>
+        <v>25</v>
       </c>
     </row>
     <row r="126">
@@ -2038,10 +2024,10 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>7250</v>
+        <v>1620</v>
       </c>
       <c r="C126" t="n">
-        <v>5844.76</v>
+        <v>100</v>
       </c>
     </row>
     <row r="127">
@@ -2051,10 +2037,10 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>7879</v>
+        <v>1620</v>
       </c>
       <c r="C127" t="n">
-        <v>6408.7</v>
+        <v>100</v>
       </c>
     </row>
     <row r="128">
@@ -2064,10 +2050,10 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>7650</v>
+        <v>1620</v>
       </c>
       <c r="C128" t="n">
-        <v>6316.56</v>
+        <v>100</v>
       </c>
     </row>
     <row r="129">
@@ -2077,10 +2063,10 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>8551</v>
+        <v>1620</v>
       </c>
       <c r="C129" t="n">
-        <v>7353.63</v>
+        <v>25</v>
       </c>
     </row>
     <row r="130">
@@ -2090,10 +2076,10 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>6791</v>
+        <v>1620</v>
       </c>
       <c r="C130" t="n">
-        <v>6090.2</v>
+        <v>50</v>
       </c>
     </row>
     <row r="131">
@@ -2103,10 +2089,10 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>8115</v>
+        <v>1620</v>
       </c>
       <c r="C131" t="n">
-        <v>7225.59</v>
+        <v>25</v>
       </c>
     </row>
     <row r="132">
@@ -2116,10 +2102,10 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>9707</v>
+        <v>1620</v>
       </c>
       <c r="C132" t="n">
-        <v>8235.799999999999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="133">
@@ -2129,10 +2115,10 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>8360</v>
+        <v>1620</v>
       </c>
       <c r="C133" t="n">
-        <v>6875.46</v>
+        <v>150</v>
       </c>
     </row>
     <row r="134">
@@ -2142,10 +2128,10 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>5757</v>
+        <v>1620</v>
       </c>
       <c r="C134" t="n">
-        <v>4485.5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="135">
@@ -2155,10 +2141,10 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>7852</v>
+        <v>1620</v>
       </c>
       <c r="C135" t="n">
-        <v>6496.05</v>
+        <v>325</v>
       </c>
     </row>
     <row r="136">
@@ -2168,10 +2154,10 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>8027</v>
+        <v>1620</v>
       </c>
       <c r="C136" t="n">
-        <v>6878.41</v>
+        <v>475</v>
       </c>
     </row>
     <row r="137">
@@ -2181,10 +2167,10 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>8721</v>
+        <v>1620</v>
       </c>
       <c r="C137" t="n">
-        <v>7229.22</v>
+        <v>325</v>
       </c>
     </row>
     <row r="138">
@@ -2194,10 +2180,10 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>7562</v>
+        <v>1620</v>
       </c>
       <c r="C138" t="n">
-        <v>6838.07</v>
+        <v>50</v>
       </c>
     </row>
     <row r="139">
@@ -2207,10 +2193,10 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>7720</v>
+        <v>1620</v>
       </c>
       <c r="C139" t="n">
-        <v>6538.56</v>
+        <v>75</v>
       </c>
     </row>
     <row r="140">
@@ -2230,10 +2216,10 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>8063</v>
+        <v>1620</v>
       </c>
       <c r="C142" t="n">
-        <v>6722.73</v>
+        <v>400</v>
       </c>
     </row>
     <row r="143">
@@ -2243,10 +2229,10 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>6239</v>
+        <v>1620</v>
       </c>
       <c r="C143" t="n">
-        <v>5410.47</v>
+        <v>100</v>
       </c>
     </row>
     <row r="144">
@@ -2256,10 +2242,10 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>1126</v>
+        <v>521</v>
       </c>
       <c r="C144" t="n">
-        <v>460.81</v>
+        <v>25</v>
       </c>
     </row>
     <row r="145">
@@ -2269,10 +2255,10 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>4667</v>
+        <v>1620</v>
       </c>
       <c r="C145" t="n">
-        <v>4008.3</v>
+        <v>75</v>
       </c>
     </row>
     <row r="146">
@@ -2282,10 +2268,10 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>6268</v>
+        <v>1620</v>
       </c>
       <c r="C146" t="n">
-        <v>5347.36</v>
+        <v>50</v>
       </c>
     </row>
     <row r="147">
@@ -2295,10 +2281,10 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>12236</v>
+        <v>1620</v>
       </c>
       <c r="C147" t="n">
-        <v>10486.24</v>
+        <v>50</v>
       </c>
     </row>
     <row r="148">
@@ -2308,10 +2294,10 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>10289</v>
+        <v>1620</v>
       </c>
       <c r="C148" t="n">
-        <v>7855.2</v>
+        <v>325</v>
       </c>
     </row>
     <row r="149">
@@ -2321,10 +2307,10 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>9240</v>
+        <v>1620</v>
       </c>
       <c r="C149" t="n">
-        <v>7855.33</v>
+        <v>50</v>
       </c>
     </row>
     <row r="150">
@@ -2334,10 +2320,10 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>8289</v>
+        <v>1620</v>
       </c>
       <c r="C150" t="n">
-        <v>6713.47</v>
+        <v>275</v>
       </c>
     </row>
     <row r="151">
@@ -2347,10 +2333,10 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>8015</v>
+        <v>1620</v>
       </c>
       <c r="C151" t="n">
-        <v>6234.64</v>
+        <v>225</v>
       </c>
     </row>
     <row r="152">
@@ -2360,10 +2346,10 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>8086</v>
+        <v>1620</v>
       </c>
       <c r="C152" t="n">
-        <v>6761.34</v>
+        <v>100</v>
       </c>
     </row>
     <row r="153">
@@ -2373,10 +2359,10 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>7635</v>
+        <v>1620</v>
       </c>
       <c r="C153" t="n">
-        <v>6708.7</v>
+        <v>400</v>
       </c>
     </row>
     <row r="154">
@@ -2386,10 +2372,10 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>6613</v>
+        <v>1620</v>
       </c>
       <c r="C154" t="n">
-        <v>5825.21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="155">
@@ -2399,10 +2385,10 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>6287</v>
+        <v>1620</v>
       </c>
       <c r="C155" t="n">
-        <v>5622.52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="156">
@@ -2412,10 +2398,10 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>7895</v>
+        <v>1620</v>
       </c>
       <c r="C156" t="n">
-        <v>7120.31</v>
+        <v>50</v>
       </c>
     </row>
     <row r="157">
@@ -2425,10 +2411,10 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>8070</v>
+        <v>1620</v>
       </c>
       <c r="C157" t="n">
-        <v>7470.58</v>
+        <v>225</v>
       </c>
     </row>
     <row r="158">
@@ -2438,10 +2424,10 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>5283</v>
+        <v>1620</v>
       </c>
       <c r="C158" t="n">
-        <v>4464.64</v>
+        <v>25</v>
       </c>
     </row>
     <row r="159">
@@ -2451,10 +2437,10 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>6386</v>
+        <v>1620</v>
       </c>
       <c r="C159" t="n">
-        <v>5195.21</v>
+        <v>100</v>
       </c>
     </row>
     <row r="160">
@@ -2464,10 +2450,10 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>6460</v>
+        <v>1620</v>
       </c>
       <c r="C160" t="n">
-        <v>5838.29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="161">
@@ -2477,10 +2463,10 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>5366</v>
+        <v>1620</v>
       </c>
       <c r="C161" t="n">
-        <v>4676.11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="162">
@@ -2490,10 +2476,10 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>7035</v>
+        <v>1620</v>
       </c>
       <c r="C162" t="n">
-        <v>5843.69</v>
+        <v>200</v>
       </c>
     </row>
     <row r="163">
@@ -2503,10 +2489,10 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>5410</v>
+        <v>1620</v>
       </c>
       <c r="C163" t="n">
-        <v>4566.67</v>
+        <v>75</v>
       </c>
     </row>
     <row r="164">
@@ -2516,10 +2502,10 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>5985</v>
+        <v>1620</v>
       </c>
       <c r="C164" t="n">
-        <v>5399.11</v>
+        <v>450</v>
       </c>
     </row>
     <row r="165">
@@ -2529,10 +2515,10 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>5040</v>
+        <v>1620</v>
       </c>
       <c r="C165" t="n">
-        <v>3936.95</v>
+        <v>250</v>
       </c>
     </row>
     <row r="166">
@@ -2542,10 +2528,10 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>5835</v>
+        <v>1620</v>
       </c>
       <c r="C166" t="n">
-        <v>4487.14</v>
+        <v>100</v>
       </c>
     </row>
     <row r="167">
@@ -2555,10 +2541,10 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>6235</v>
+        <v>1620</v>
       </c>
       <c r="C167" t="n">
-        <v>5630.38</v>
+        <v>500</v>
       </c>
     </row>
     <row r="168">
@@ -2568,10 +2554,10 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>6035</v>
+        <v>1620</v>
       </c>
       <c r="C168" t="n">
-        <v>5440.79</v>
+        <v>300</v>
       </c>
     </row>
     <row r="169">
@@ -2581,10 +2567,10 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>6911</v>
+        <v>1620</v>
       </c>
       <c r="C169" t="n">
-        <v>6182.71</v>
+        <v>25</v>
       </c>
     </row>
     <row r="170">
@@ -2594,10 +2580,10 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>6760</v>
+        <v>1620</v>
       </c>
       <c r="C170" t="n">
-        <v>6124.78</v>
+        <v>25</v>
       </c>
     </row>
     <row r="171">
@@ -2607,10 +2593,10 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>8420</v>
+        <v>1620</v>
       </c>
       <c r="C171" t="n">
-        <v>7772.16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="172">
@@ -2620,10 +2606,10 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>7397</v>
+        <v>1341</v>
       </c>
       <c r="C172" t="n">
-        <v>7364.18</v>
+        <v>50</v>
       </c>
     </row>
     <row r="173">
@@ -2633,10 +2619,10 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>10827</v>
+        <v>1620</v>
       </c>
       <c r="C173" t="n">
-        <v>9889.190000000001</v>
+        <v>100</v>
       </c>
     </row>
     <row r="174">
@@ -2646,10 +2632,10 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>2963</v>
+        <v>894</v>
       </c>
       <c r="C174" t="n">
-        <v>1712.18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="175">
@@ -2659,10 +2645,10 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>11990</v>
+        <v>1620</v>
       </c>
       <c r="C175" t="n">
-        <v>10639.11</v>
+        <v>50</v>
       </c>
     </row>
     <row r="176">
@@ -2672,10 +2658,10 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>9315</v>
+        <v>1620</v>
       </c>
       <c r="C176" t="n">
-        <v>8676.610000000001</v>
+        <v>25</v>
       </c>
     </row>
     <row r="177">
@@ -2685,10 +2671,10 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>10045</v>
+        <v>1620</v>
       </c>
       <c r="C177" t="n">
-        <v>9292.93</v>
+        <v>25</v>
       </c>
     </row>
     <row r="178">
@@ -2698,10 +2684,10 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>3434</v>
+        <v>1117</v>
       </c>
       <c r="C178" t="n">
-        <v>2818.99</v>
+        <v>25</v>
       </c>
     </row>
     <row r="179">
@@ -2711,10 +2697,10 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>3434</v>
+        <v>1117</v>
       </c>
       <c r="C179" t="n">
-        <v>2809.46</v>
+        <v>25</v>
       </c>
     </row>
     <row r="180">
@@ -2724,10 +2710,10 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>2323</v>
+        <v>745</v>
       </c>
       <c r="C180" t="n">
-        <v>2300.55</v>
+        <v>25</v>
       </c>
     </row>
     <row r="181">
@@ -2737,10 +2723,10 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>1614</v>
+        <v>521</v>
       </c>
       <c r="C181" t="n">
-        <v>1614</v>
+        <v>25</v>
       </c>
     </row>
     <row r="182">
@@ -2750,10 +2736,10 @@
         </is>
       </c>
       <c r="B182" t="n">
-        <v>974</v>
+        <v>372</v>
       </c>
       <c r="C182" t="n">
-        <v>348.59</v>
+        <v>25</v>
       </c>
     </row>
     <row r="183">
@@ -2763,10 +2749,10 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>11343</v>
+        <v>1620</v>
       </c>
       <c r="C183" t="n">
-        <v>10698.91</v>
+        <v>25</v>
       </c>
     </row>
     <row r="184">
@@ -2776,10 +2762,10 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>8317</v>
+        <v>1620</v>
       </c>
       <c r="C184" t="n">
-        <v>8309.6</v>
+        <v>25</v>
       </c>
     </row>
     <row r="185">
@@ -2789,10 +2775,10 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>8210</v>
+        <v>1620</v>
       </c>
       <c r="C185" t="n">
-        <v>7571.61</v>
+        <v>25</v>
       </c>
     </row>
     <row r="186">
@@ -2802,10 +2788,10 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>9850</v>
+        <v>1620</v>
       </c>
       <c r="C186" t="n">
-        <v>9184.01</v>
+        <v>25</v>
       </c>
     </row>
     <row r="187">
@@ -2815,10 +2801,10 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>1614</v>
+        <v>521</v>
       </c>
       <c r="C187" t="n">
-        <v>966.14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="188">
@@ -2828,10 +2814,10 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>1929</v>
+        <v>670</v>
       </c>
       <c r="C188" t="n">
-        <v>1301.59</v>
+        <v>25</v>
       </c>
     </row>
     <row r="189">
@@ -2841,10 +2827,10 @@
         </is>
       </c>
       <c r="B189" t="n">
-        <v>11520</v>
+        <v>1620</v>
       </c>
       <c r="C189" t="n">
-        <v>10590.71</v>
+        <v>25</v>
       </c>
     </row>
     <row r="190">
@@ -2854,10 +2840,10 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>3908</v>
+        <v>1330</v>
       </c>
       <c r="C190" t="n">
-        <v>2822.98</v>
+        <v>225</v>
       </c>
     </row>
     <row r="191">
@@ -2867,10 +2853,10 @@
         </is>
       </c>
       <c r="B191" t="n">
-        <v>6260</v>
+        <v>1620</v>
       </c>
       <c r="C191" t="n">
-        <v>5621.61</v>
+        <v>25</v>
       </c>
     </row>
     <row r="192">
@@ -2880,10 +2866,10 @@
         </is>
       </c>
       <c r="B192" t="n">
-        <v>5287</v>
+        <v>1620</v>
       </c>
       <c r="C192" t="n">
-        <v>4653.87</v>
+        <v>25</v>
       </c>
     </row>
     <row r="193">
@@ -2893,10 +2879,10 @@
         </is>
       </c>
       <c r="B193" t="n">
-        <v>6260</v>
+        <v>1620</v>
       </c>
       <c r="C193" t="n">
-        <v>5624.78</v>
+        <v>25</v>
       </c>
     </row>
     <row r="194">
@@ -2906,10 +2892,10 @@
         </is>
       </c>
       <c r="B194" t="n">
-        <v>3120</v>
+        <v>968</v>
       </c>
       <c r="C194" t="n">
-        <v>2485.07</v>
+        <v>25</v>
       </c>
     </row>
     <row r="195">
@@ -2919,10 +2905,10 @@
         </is>
       </c>
       <c r="B195" t="n">
-        <v>8160</v>
+        <v>1620</v>
       </c>
       <c r="C195" t="n">
-        <v>7431.71</v>
+        <v>25</v>
       </c>
     </row>
     <row r="196">
@@ -2932,10 +2918,10 @@
         </is>
       </c>
       <c r="B196" t="n">
-        <v>8884</v>
+        <v>1620</v>
       </c>
       <c r="C196" t="n">
-        <v>7867.75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="197">
@@ -2945,10 +2931,10 @@
         </is>
       </c>
       <c r="B197" t="n">
-        <v>8809</v>
+        <v>1620</v>
       </c>
       <c r="C197" t="n">
-        <v>8140.61</v>
+        <v>25</v>
       </c>
     </row>
     <row r="198">
@@ -2958,10 +2944,10 @@
         </is>
       </c>
       <c r="B198" t="n">
-        <v>8054</v>
+        <v>1620</v>
       </c>
       <c r="C198" t="n">
-        <v>7411.5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="199">
@@ -2971,10 +2957,10 @@
         </is>
       </c>
       <c r="B199" t="n">
-        <v>6538</v>
+        <v>1620</v>
       </c>
       <c r="C199" t="n">
-        <v>5277.79</v>
+        <v>175</v>
       </c>
     </row>
     <row r="200">
@@ -2984,10 +2970,10 @@
         </is>
       </c>
       <c r="B200" t="n">
-        <v>6314</v>
+        <v>1620</v>
       </c>
       <c r="C200" t="n">
-        <v>5634.34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="201">
@@ -2997,10 +2983,10 @@
         </is>
       </c>
       <c r="B201" t="n">
-        <v>7591</v>
+        <v>1620</v>
       </c>
       <c r="C201" t="n">
-        <v>6494.92</v>
+        <v>50</v>
       </c>
     </row>
     <row r="202">
@@ -3010,10 +2996,10 @@
         </is>
       </c>
       <c r="B202" t="n">
-        <v>4729</v>
+        <v>1620</v>
       </c>
       <c r="C202" t="n">
-        <v>4099.66</v>
+        <v>25</v>
       </c>
     </row>
     <row r="203">
@@ -3023,10 +3009,10 @@
         </is>
       </c>
       <c r="B203" t="n">
-        <v>4667</v>
+        <v>1508</v>
       </c>
       <c r="C203" t="n">
-        <v>3479.85</v>
+        <v>125</v>
       </c>
     </row>
     <row r="204">
@@ -3036,10 +3022,10 @@
         </is>
       </c>
       <c r="B204" t="n">
-        <v>6260</v>
+        <v>1620</v>
       </c>
       <c r="C204" t="n">
-        <v>5626.14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="205">
@@ -3049,10 +3035,10 @@
         </is>
       </c>
       <c r="B205" t="n">
-        <v>5564</v>
+        <v>1620</v>
       </c>
       <c r="C205" t="n">
-        <v>4457.68</v>
+        <v>125</v>
       </c>
     </row>
     <row r="206">
@@ -3062,10 +3048,10 @@
         </is>
       </c>
       <c r="B206" t="n">
-        <v>1614</v>
+        <v>521</v>
       </c>
       <c r="C206" t="n">
-        <v>1614</v>
+        <v>25</v>
       </c>
     </row>
     <row r="207">
@@ -3075,10 +3061,10 @@
         </is>
       </c>
       <c r="B207" t="n">
-        <v>3434</v>
+        <v>1117</v>
       </c>
       <c r="C207" t="n">
-        <v>2818.99</v>
+        <v>25</v>
       </c>
     </row>
     <row r="208">
@@ -3088,10 +3074,10 @@
         </is>
       </c>
       <c r="B208" t="n">
-        <v>8185</v>
+        <v>1620</v>
       </c>
       <c r="C208" t="n">
-        <v>7036.96</v>
+        <v>50</v>
       </c>
     </row>
     <row r="209">
@@ -3101,10 +3087,10 @@
         </is>
       </c>
       <c r="B209" t="n">
-        <v>8238</v>
+        <v>1620</v>
       </c>
       <c r="C209" t="n">
-        <v>7618.82</v>
+        <v>300</v>
       </c>
     </row>
     <row r="210">
@@ -3114,10 +3100,10 @@
         </is>
       </c>
       <c r="B210" t="n">
-        <v>7963</v>
+        <v>1620</v>
       </c>
       <c r="C210" t="n">
-        <v>7302.61</v>
+        <v>25</v>
       </c>
     </row>
     <row r="211">
@@ -3127,10 +3113,10 @@
         </is>
       </c>
       <c r="B211" t="n">
-        <v>5688</v>
+        <v>1620</v>
       </c>
       <c r="C211" t="n">
-        <v>5033.24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="212">
@@ -3140,10 +3126,10 @@
         </is>
       </c>
       <c r="B212" t="n">
-        <v>7963</v>
+        <v>1620</v>
       </c>
       <c r="C212" t="n">
-        <v>7324.61</v>
+        <v>25</v>
       </c>
     </row>
     <row r="213">
@@ -3153,10 +3139,10 @@
         </is>
       </c>
       <c r="B213" t="n">
-        <v>1614</v>
+        <v>521</v>
       </c>
       <c r="C213" t="n">
-        <v>988.59</v>
+        <v>25</v>
       </c>
     </row>
     <row r="214">
@@ -3166,10 +3152,10 @@
         </is>
       </c>
       <c r="B214" t="n">
-        <v>9315</v>
+        <v>1620</v>
       </c>
       <c r="C214" t="n">
-        <v>8557.83</v>
+        <v>25</v>
       </c>
     </row>
     <row r="215">
@@ -3179,10 +3165,10 @@
         </is>
       </c>
       <c r="B215" t="n">
-        <v>5860</v>
+        <v>1620</v>
       </c>
       <c r="C215" t="n">
-        <v>5191.61</v>
+        <v>25</v>
       </c>
     </row>
     <row r="216">
@@ -3192,10 +3178,10 @@
         </is>
       </c>
       <c r="B216" t="n">
-        <v>5027</v>
+        <v>1620</v>
       </c>
       <c r="C216" t="n">
-        <v>4397.67</v>
+        <v>25</v>
       </c>
     </row>
     <row r="217">
@@ -3205,10 +3191,10 @@
         </is>
       </c>
       <c r="B217" t="n">
-        <v>3886</v>
+        <v>1192</v>
       </c>
       <c r="C217" t="n">
-        <v>2605.83</v>
+        <v>25</v>
       </c>
     </row>
     <row r="218">
@@ -3218,10 +3204,10 @@
         </is>
       </c>
       <c r="B218" t="n">
-        <v>3886</v>
+        <v>1192</v>
       </c>
       <c r="C218" t="n">
-        <v>3260.59</v>
+        <v>25</v>
       </c>
     </row>
     <row r="219">
@@ -3231,10 +3217,10 @@
         </is>
       </c>
       <c r="B219" t="n">
-        <v>1929</v>
+        <v>670</v>
       </c>
       <c r="C219" t="n">
-        <v>1927</v>
+        <v>25</v>
       </c>
     </row>
     <row r="220">
@@ -3244,10 +3230,10 @@
         </is>
       </c>
       <c r="B220" t="n">
-        <v>6111</v>
+        <v>1620</v>
       </c>
       <c r="C220" t="n">
-        <v>5445.01</v>
+        <v>25</v>
       </c>
     </row>
     <row r="221">
@@ -3257,10 +3243,10 @@
         </is>
       </c>
       <c r="B221" t="n">
-        <v>7610</v>
+        <v>1620</v>
       </c>
       <c r="C221" t="n">
-        <v>6976.86</v>
+        <v>25</v>
       </c>
     </row>
     <row r="222">
@@ -3270,10 +3256,10 @@
         </is>
       </c>
       <c r="B222" t="n">
-        <v>7498</v>
+        <v>1620</v>
       </c>
       <c r="C222" t="n">
-        <v>6911.04</v>
+        <v>25</v>
       </c>
     </row>
     <row r="223">
@@ -3283,10 +3269,10 @@
         </is>
       </c>
       <c r="B223" t="n">
-        <v>6498</v>
+        <v>1620</v>
       </c>
       <c r="C223" t="n">
-        <v>5871.02</v>
+        <v>25</v>
       </c>
     </row>
     <row r="224">
@@ -3296,10 +3282,10 @@
         </is>
       </c>
       <c r="B224" t="n">
-        <v>7841</v>
+        <v>1620</v>
       </c>
       <c r="C224" t="n">
-        <v>7235.36</v>
+        <v>500</v>
       </c>
     </row>
     <row r="225">
@@ -3309,10 +3295,10 @@
         </is>
       </c>
       <c r="B225" t="n">
-        <v>6064</v>
+        <v>1620</v>
       </c>
       <c r="C225" t="n">
-        <v>5257.14</v>
+        <v>50</v>
       </c>
     </row>
     <row r="226">
@@ -3322,10 +3308,10 @@
         </is>
       </c>
       <c r="B226" t="n">
-        <v>6285</v>
+        <v>1620</v>
       </c>
       <c r="C226" t="n">
-        <v>5660.51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="227">
@@ -3335,10 +3321,10 @@
         </is>
       </c>
       <c r="B227" t="n">
-        <v>6260</v>
+        <v>1620</v>
       </c>
       <c r="C227" t="n">
-        <v>5621.61</v>
+        <v>25</v>
       </c>
     </row>
     <row r="228">
@@ -3348,10 +3334,10 @@
         </is>
       </c>
       <c r="B228" t="n">
-        <v>7066</v>
+        <v>1620</v>
       </c>
       <c r="C228" t="n">
-        <v>6104.14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="229">
@@ -3361,10 +3347,10 @@
         </is>
       </c>
       <c r="B229" t="n">
-        <v>5911</v>
+        <v>1620</v>
       </c>
       <c r="C229" t="n">
-        <v>5269.46</v>
+        <v>25</v>
       </c>
     </row>
     <row r="230">
@@ -3374,10 +3360,10 @@
         </is>
       </c>
       <c r="B230" t="n">
-        <v>4766</v>
+        <v>1620</v>
       </c>
       <c r="C230" t="n">
-        <v>4758.6</v>
+        <v>25</v>
       </c>
     </row>
     <row r="231">
@@ -3387,10 +3373,10 @@
         </is>
       </c>
       <c r="B231" t="n">
-        <v>340</v>
+        <v>149</v>
       </c>
       <c r="C231" t="n">
-        <v>340</v>
+        <v>25</v>
       </c>
     </row>
     <row r="232">
@@ -3400,10 +3386,10 @@
         </is>
       </c>
       <c r="B232" t="n">
-        <v>6260</v>
+        <v>1620</v>
       </c>
       <c r="C232" t="n">
-        <v>5615.61</v>
+        <v>25</v>
       </c>
     </row>
     <row r="233">
@@ -3413,10 +3399,10 @@
         </is>
       </c>
       <c r="B233" t="n">
-        <v>7577</v>
+        <v>1620</v>
       </c>
       <c r="C233" t="n">
-        <v>6938.61</v>
+        <v>25</v>
       </c>
     </row>
     <row r="234">
@@ -3426,10 +3412,10 @@
         </is>
       </c>
       <c r="B234" t="n">
-        <v>5711</v>
+        <v>1620</v>
       </c>
       <c r="C234" t="n">
-        <v>5047.91</v>
+        <v>25</v>
       </c>
     </row>
     <row r="235">
@@ -3439,10 +3425,10 @@
         </is>
       </c>
       <c r="B235" t="n">
-        <v>8157</v>
+        <v>1620</v>
       </c>
       <c r="C235" t="n">
-        <v>7166.4</v>
+        <v>25</v>
       </c>
     </row>
     <row r="236">
@@ -3462,11 +3448,9 @@
         </is>
       </c>
       <c r="B238" t="n">
-        <v>17000</v>
-      </c>
-      <c r="C238" t="n">
-        <v>12547.8</v>
-      </c>
+        <v>12000</v>
+      </c>
+      <c r="C238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr"/>
@@ -3485,10 +3469,10 @@
         </is>
       </c>
       <c r="B241" t="n">
-        <v>7035</v>
+        <v>1620</v>
       </c>
       <c r="C241" t="n">
-        <v>5629.91</v>
+        <v>100</v>
       </c>
     </row>
     <row r="242">
@@ -3498,10 +3482,10 @@
         </is>
       </c>
       <c r="B242" t="n">
-        <v>7945</v>
+        <v>1620</v>
       </c>
       <c r="C242" t="n">
-        <v>7313.21</v>
+        <v>50</v>
       </c>
     </row>
     <row r="243">
@@ -3511,10 +3495,10 @@
         </is>
       </c>
       <c r="B243" t="n">
-        <v>13460</v>
+        <v>1620</v>
       </c>
       <c r="C243" t="n">
-        <v>9933.889999999999</v>
+        <v>325</v>
       </c>
     </row>
     <row r="244">
@@ -3524,10 +3508,10 @@
         </is>
       </c>
       <c r="B244" t="n">
-        <v>9260</v>
+        <v>1620</v>
       </c>
       <c r="C244" t="n">
-        <v>6748.25</v>
+        <v>325</v>
       </c>
     </row>
     <row r="245">
@@ -3537,10 +3521,10 @@
         </is>
       </c>
       <c r="B245" t="n">
-        <v>4919.47</v>
+        <v>1620</v>
       </c>
       <c r="C245" t="n">
-        <v>3778.96</v>
+        <v>225</v>
       </c>
     </row>
     <row r="246">
@@ -3550,10 +3534,10 @@
         </is>
       </c>
       <c r="B246" t="n">
-        <v>8090</v>
+        <v>1620</v>
       </c>
       <c r="C246" t="n">
-        <v>6138.32</v>
+        <v>225</v>
       </c>
     </row>
     <row r="247">
@@ -3563,10 +3547,10 @@
         </is>
       </c>
       <c r="B247" t="n">
-        <v>3676.56</v>
+        <v>1545.51724137931</v>
       </c>
       <c r="C247" t="n">
-        <v>2959.12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="248">
@@ -3576,10 +3560,10 @@
         </is>
       </c>
       <c r="B248" t="n">
-        <v>8160</v>
+        <v>1620</v>
       </c>
       <c r="C248" t="n">
-        <v>7180.61</v>
+        <v>25</v>
       </c>
     </row>
     <row r="249">
@@ -3589,10 +3573,10 @@
         </is>
       </c>
       <c r="B249" t="n">
-        <v>7303.41</v>
+        <v>1620</v>
       </c>
       <c r="C249" t="n">
-        <v>6028.83</v>
+        <v>100</v>
       </c>
     </row>
     <row r="250">
@@ -3602,10 +3586,10 @@
         </is>
       </c>
       <c r="B250" t="n">
-        <v>6448.01</v>
+        <v>1620</v>
       </c>
       <c r="C250" t="n">
-        <v>5110.44</v>
+        <v>225</v>
       </c>
     </row>
     <row r="251">
@@ -3615,10 +3599,10 @@
         </is>
       </c>
       <c r="B251" t="n">
-        <v>6785</v>
+        <v>1620</v>
       </c>
       <c r="C251" t="n">
-        <v>6175.14</v>
+        <v>50</v>
       </c>
     </row>
     <row r="252">
@@ -3628,10 +3612,10 @@
         </is>
       </c>
       <c r="B252" t="n">
-        <v>6960</v>
+        <v>1620</v>
       </c>
       <c r="C252" t="n">
-        <v>6316.83</v>
+        <v>25</v>
       </c>
     </row>
     <row r="253">
@@ -3641,10 +3625,10 @@
         </is>
       </c>
       <c r="B253" t="n">
-        <v>7285</v>
+        <v>1620</v>
       </c>
       <c r="C253" t="n">
-        <v>6455.72</v>
+        <v>50</v>
       </c>
     </row>
     <row r="254">
@@ -3654,10 +3638,10 @@
         </is>
       </c>
       <c r="B254" t="n">
-        <v>7086.31</v>
+        <v>1620</v>
       </c>
       <c r="C254" t="n">
-        <v>5672.91</v>
+        <v>125</v>
       </c>
     </row>
     <row r="255">
@@ -3667,10 +3651,10 @@
         </is>
       </c>
       <c r="B255" t="n">
-        <v>5410.13</v>
+        <v>1620</v>
       </c>
       <c r="C255" t="n">
-        <v>4766.96</v>
+        <v>25</v>
       </c>
     </row>
     <row r="256">
@@ -3680,10 +3664,10 @@
         </is>
       </c>
       <c r="B256" t="n">
-        <v>6138.62</v>
+        <v>1620</v>
       </c>
       <c r="C256" t="n">
-        <v>5432.83</v>
+        <v>25</v>
       </c>
     </row>
     <row r="257">
@@ -3693,10 +3677,10 @@
         </is>
       </c>
       <c r="B257" t="n">
-        <v>4893.37</v>
+        <v>1620</v>
       </c>
       <c r="C257" t="n">
-        <v>4187.58</v>
+        <v>25</v>
       </c>
     </row>
     <row r="258">
@@ -3706,10 +3690,10 @@
         </is>
       </c>
       <c r="B258" t="n">
-        <v>5061.88</v>
+        <v>1620</v>
       </c>
       <c r="C258" t="n">
-        <v>4418.71</v>
+        <v>25</v>
       </c>
     </row>
     <row r="259">
@@ -3719,10 +3703,10 @@
         </is>
       </c>
       <c r="B259" t="n">
-        <v>5711.6</v>
+        <v>1620</v>
       </c>
       <c r="C259" t="n">
-        <v>5068.43</v>
+        <v>25</v>
       </c>
     </row>
     <row r="260">
@@ -3732,10 +3716,10 @@
         </is>
       </c>
       <c r="B260" t="n">
-        <v>5711.6</v>
+        <v>1620</v>
       </c>
       <c r="C260" t="n">
-        <v>5068.43</v>
+        <v>25</v>
       </c>
     </row>
     <row r="261">
@@ -3745,10 +3729,10 @@
         </is>
       </c>
       <c r="B261" t="n">
-        <v>5736.6</v>
+        <v>1620</v>
       </c>
       <c r="C261" t="n">
-        <v>5133.99</v>
+        <v>50</v>
       </c>
     </row>
     <row r="262">
@@ -3758,10 +3742,10 @@
         </is>
       </c>
       <c r="B262" t="n">
-        <v>9213.389999999999</v>
+        <v>1620</v>
       </c>
       <c r="C262" t="n">
-        <v>8507.6</v>
+        <v>25</v>
       </c>
     </row>
     <row r="263">
@@ -3771,10 +3755,10 @@
         </is>
       </c>
       <c r="B263" t="n">
-        <v>7895.59</v>
+        <v>1620</v>
       </c>
       <c r="C263" t="n">
-        <v>7189.8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="264">
@@ -3784,10 +3768,10 @@
         </is>
       </c>
       <c r="B264" t="n">
-        <v>6695.2</v>
+        <v>1620</v>
       </c>
       <c r="C264" t="n">
-        <v>5755.88</v>
+        <v>25</v>
       </c>
     </row>
     <row r="265">
@@ -3797,10 +3781,10 @@
         </is>
       </c>
       <c r="B265" t="n">
-        <v>7367.44</v>
+        <v>1620</v>
       </c>
       <c r="C265" t="n">
-        <v>6724.27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="266">
@@ -3810,10 +3794,10 @@
         </is>
       </c>
       <c r="B266" t="n">
-        <v>5417.18</v>
+        <v>1620</v>
       </c>
       <c r="C266" t="n">
-        <v>4774.01</v>
+        <v>25</v>
       </c>
     </row>
     <row r="267">
@@ -3823,10 +3807,10 @@
         </is>
       </c>
       <c r="B267" t="n">
-        <v>7895.59</v>
+        <v>1620</v>
       </c>
       <c r="C267" t="n">
-        <v>7252.42</v>
+        <v>25</v>
       </c>
     </row>
     <row r="268">
@@ -3836,10 +3820,10 @@
         </is>
       </c>
       <c r="B268" t="n">
-        <v>7895.59</v>
+        <v>1620</v>
       </c>
       <c r="C268" t="n">
-        <v>7252.42</v>
+        <v>25</v>
       </c>
     </row>
     <row r="269">
@@ -3859,11 +3843,9 @@
         </is>
       </c>
       <c r="B271" t="n">
-        <v>19467</v>
-      </c>
-      <c r="C271" t="n">
-        <v>12871.47</v>
-      </c>
+        <v>10667</v>
+      </c>
+      <c r="C271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -3872,11 +3854,9 @@
         </is>
       </c>
       <c r="B272" t="n">
-        <v>18667</v>
-      </c>
-      <c r="C272" t="n">
-        <v>12436.63</v>
-      </c>
+        <v>10667</v>
+      </c>
+      <c r="C272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -3885,10 +3865,10 @@
         </is>
       </c>
       <c r="B273" t="n">
-        <v>13585</v>
+        <v>2300</v>
       </c>
       <c r="C273" t="n">
-        <v>11172.44</v>
+        <v>30</v>
       </c>
     </row>
     <row r="274">
@@ -3898,10 +3878,10 @@
         </is>
       </c>
       <c r="B274" t="n">
-        <v>8330</v>
+        <v>2300</v>
       </c>
       <c r="C274" t="n">
-        <v>6726.34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="275">
